--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.fugitive_status,True</t>
+          <t>chitsii.arena.player.fugitive_status,1</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
@@ -822,12 +822,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>リリアリス……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
+          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>リリアリス……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
+          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>さあ、闘士殿！ リリアリスもバルガスも連れて、私の影に飛び込みなさい！</t>
+          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>さあ、闘士殿！ リリアリスもバルガスも連れて、私の影に飛び込みなさい！</t>
+          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,307 +571,342 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>（彼が地を踏んだ瞬間、床の石畳が恐怖に震えるように粉砕された。）</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>（彼が地を踏んだ瞬間、床の石畳が恐怖に震えるように粉砕された。）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_grandmaster</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>astaroth_1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>……なるほど。これが私の庭を騒がせている『特異点』か。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>……なるほど。これが私の庭を騒がせている『特異点』か。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>astaroth_2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>（彼が地を踏んだ瞬間、床の石畳が恐怖に震えるように粉砕された。）</t>
+          <t>バルガスの命を救い、サキュバスに真名を吐かせ……あまつさえ、このアリーナの『理』を塗り替えようとするとは。</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>（彼が地を踏んだ瞬間、床の石畳が恐怖に震えるように粉砕された。）</t>
+          <t>バルガスの命を救い、サキュバスに真名を吐かせ……あまつさえ、このアリーナの『理』を塗り替えようとするとは。</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>astaroth_3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>面白い。実に面白いぞ、人間よ。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>面白い。実に面白いぞ、人間よ。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>astaroth_1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>……なるほど。これが私の庭を騒がせている『特異点』か。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>……なるほど。これが私の庭を騒がせている『特異点』か。</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>scene2_killing_intent</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>astaroth_2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>バルガスの命を救い、サキュバスに真名を吐かせ……あまつさえ、このアリーナの『理』を塗り替えようとするとは。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>バルガスの命を救い、サキュバスに真名を吐かせ……あまつさえ、このアリーナの『理』を塗り替えようとするとは。</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>scene2_killing_intent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>（アスタロトは、絶望に震えるリリィと、彼女を庇って前に出るバルガスを一瞥し、嘲笑するように鼻を鳴らした。）</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>（アスタロトは、絶望に震えるリリィと、彼女を庇って前に出るバルガスを一瞥し、嘲笑するように鼻を鳴らした。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
           <t>sukutsu_grandmaster</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>astaroth_3</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>面白い。実に面白いぞ、人間よ。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>面白い。実に面白いぞ、人間よ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>scene2_killing_intent</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>astaroth_4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>scene2_killing_intent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>astaroth_5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>そしてバルガス、老いさらばえた敗残兵の分際で、運命の書き換えを許したか。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>そしてバルガス、老いさらばえた敗残兵の分際で、運命の書き換えを許したか。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>……よかろう。システムの不備は、私の手で『焼却』し、無に帰すのが王の責務だ。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>……よかろう。システムの不備は、私の手で『焼却』し、無に帰すのが王の責務だ。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（アスタロトが右手を掲げると、その周囲に凝縮された虚空の炎が渦巻く。）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（アスタロトが右手を掲げると、その周囲に凝縮された虚空の炎が渦巻く。）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>astaroth_7</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>さらばだ。輝かしいバグ（英雄）よ。お前の物語は、ここで『なかったこと』になる。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>さらばだ。輝かしいバグ（英雄）よ。お前の物語は、ここで『なかったこと』になる。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>（アスタロトは、絶望に震えるリリィと、彼女を庇って前に出るバルガスを一瞥し、嘲笑するように鼻を鳴らした。）</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>（アスタロトは、絶望に震えるリリィと、彼女を庇って前に出るバルガスを一瞥し、嘲笑するように鼻を鳴らした。）</t>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>scene3_intervention</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>scene3_intervention</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>（アスタロトの放った『虚空のブレス』が、次元そのものを焼き尽くさんばかりの勢いであなたに迫る。）</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>（アスタロトの放った『虚空のブレス』が、次元そのものを焼き尽くさんばかりの勢いであなたに迫る。）</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>astaroth_4</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>リリィ……お前が愛したその人間は、もはやお前の手には負えぬバケモノだ。</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="F30" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>astaroth_5</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>そしてバルガス、老いさらばえた敗残兵の分際で、運命の書き換えを許したか。</t>
+          <t>（回避も防御も不可能な、概念的な死。）</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>そしてバルガス、老いさらばえた敗残兵の分際で、運命の書き換えを許したか。</t>
+          <t>（回避も防御も不可能な、概念的な死。）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>astaroth_6</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>……よかろう。システムの不備は、私の手で『焼却』し、無に帰すのが王の責務だ。</t>
+          <t>（リリィが叫び、バルガスが叫ぶ。その直前——。）</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>……よかろう。システムの不備は、私の手で『焼却』し、無に帰すのが王の責務だ。</t>
+          <t>（リリィが叫び、バルガスが叫ぶ。その直前——。）</t>
         </is>
       </c>
     </row>
@@ -883,94 +918,119 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>（アスタロトが右手を掲げると、その周囲に凝縮された虚空の炎が渦巻く。）</t>
+          <t>（空間がガラスのようにパリンと音を立てて割れ、あなたの目の前に、ゼクがひょっこりと現れた。）</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>（アスタロトが右手を掲げると、その周囲に凝縮された虚空の炎が渦巻く。）</t>
+          <t>（空間がガラスのようにパリンと音を立てて割れ、あなたの目の前に、ゼクがひょっこりと現れた。）</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>astaroth_7</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>さらばだ。輝かしいバグ（英雄）よ。お前の物語は、ここで『なかったこと』になる。</t>
+          <t>（その手には、不気味に明滅し、バグったように色彩が反転し続ける立方体——**『因果の断片（パラドックス・キューブ）』**が握られていた。）</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>さらばだ。輝かしいバグ（英雄）よ。お前の物語は、ここで『なかったこと』になる。</t>
+          <t>（その手には、不気味に明滅し、バグったように色彩が反転し続ける立方体——**『因果の断片（パラドックス・キューブ）』**が握られていた。）</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>scene3_intervention</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>おっと……！ 王様、あまり急いではいけません。</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>おっと……！ 王様、あまり急いではいけません。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>scene3_intervention</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>私の最高級のコレクションが灰になっては、商売あがったりですからね！</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>私の最高級のコレクションが灰になっては、商売あがったりですからね！</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>（ゼクがキューブを起動させると、アスタロトの炎があなたを通り抜け、まるで『そこには誰もいない』かのように虚空へ消えていく。）</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>（ゼクがキューブを起動させると、アスタロトの炎があなたを通り抜け、まるで『そこには誰もいない』かのように虚空へ消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>（アスタロトの放った『虚空のブレス』が、次元そのものを焼き尽くさんばかりの勢いであなたに迫る。）</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>（アスタロトの放った『虚空のブレス』が、次元そのものを焼き尽くさんばかりの勢いであなたに迫る。）</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>scene4_escape</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>scene4_escape</t>
         </is>
       </c>
     </row>
@@ -982,17 +1042,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>（回避も防御も不可能な、概念的な死。）</t>
+          <t>（ゼクは冷や汗を流しながらも、不敵な笑みを浮かべてアスタロトを見上げる。）</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>（回避も防御も不可能な、概念的な死。）</t>
+          <t>（ゼクは冷や汗を流しながらも、不敵な笑みを浮かべてアスタロトを見上げる。）</t>
         </is>
       </c>
     </row>
@@ -1004,75 +1064,105 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（リリィが叫び、バルガスが叫ぶ。その直前——。）</t>
+          <t>（キューブの周りでは、数式やノイズが乱舞し、あなたたちの存在を一時的に『世界の演算』から切り離していた。）</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（リリィが叫び、バルガスが叫ぶ。その直前——。）</t>
+          <t>（キューブの周りでは、数式やノイズが乱舞し、あなたたちの存在を一時的に『世界の演算』から切り離していた。）</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>astaroth_8</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（空間がガラスのようにパリンと音を立てて割れ、あなたの目の前に、ゼクがひょっこりと現れた。）</t>
+          <t>……ゼクか。ゴミ拾いの分際で、この私の『確定した死』を歪めたか。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（空間がガラスのようにパリンと音を立てて割れ、あなたの目の前に、ゼクがひょっこりと現れた。）</t>
+          <t>……ゼクか。ゴミ拾いの分際で、この私の『確定した死』を歪めたか。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>クク……歪めたのではありません。少しだけ『ページを飛ばした』のですよ。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>クク……歪めたのではありません。少しだけ『ページを飛ばした』のですよ。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>この道具が保つのはあと数秒だ。アスタロトを倒すための『本当の力』、それを手に入れる猶予を……私が無理やり作ってあげましょう！</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>この道具が保つのはあと数秒だ。アスタロトを倒すための『本当の力』、それを手に入れる猶予を……私が無理やり作ってあげましょう！</t>
         </is>
       </c>
     </row>
@@ -1084,133 +1174,153 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>（その手には、不気味に明滅し、バグったように色彩が反転し続ける立方体——**『因果の断片（パラドックス・キューブ）』**が握られていた。）</t>
+          <t>（あなたはバルガスとリリィを連れて、ゼクの影の中へ飛び込む。）</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>（その手には、不気味に明滅し、バグったように色彩が反転し続ける立方体——**『因果の断片（パラドックス・キューブ）』**が握られていた。）</t>
+          <t>（あなたはバルガスとリリィを連れて、ゼクの影の中へ飛び込む。）</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>narr_16</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>おっと……！ 王様、あまり急いではいけません。</t>
+          <t>（背後からアスタロトの怒号に近い咆哮が聞こえるが、視界は瞬時に暗転した。）</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>おっと……！ 王様、あまり急いではいけません。</t>
+          <t>（背後からアスタロトの怒号に近い咆哮が聞こえるが、視界は瞬時に暗転した。）</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>私の最高級のコレクションが灰になっては、商売あがったりですからね！</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>私の最高級のコレクションが灰になっては、商売あがったりですからね！</t>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scene5_hideout</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>（ゼクがキューブを起動させると、アスタロトの炎があなたを通り抜け、まるで『そこには誰もいない』かのように虚空へ消えていく。）</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>（ゼクがキューブを起動させると、アスタロトの炎があなたを通り抜け、まるで『そこには誰もいない』かのように虚空へ消えていく。）</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>scene5_hideout</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>scene4_escape</t>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Hideout");             var data = SoundManager.current.GetData("BGM/Zek_Hideout");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Hideout");             }</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>scene4_escape</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>（辿り着いたのは、アリーナのロビーでも私室でもない、無数のガラクタと遺品が積み上がった不気味な異空間——ゼクの本拠地だった。）</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>（辿り着いたのは、アリーナのロビーでも私室でもない、無数のガラクタと遺品が積み上がった不気味な異空間——ゼクの本拠地だった。）</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（バルガスが激しく咳き込み、リリィが膝をついて震えている。）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（バルガスが激しく咳き込み、リリィが膝をついて震えている。）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（薄暗い空間の奥に、無数の『展示台』が並んでいる。そこに置かれているのは、ガラスケースに封じられた『瞬間』の数々。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（薄暗い空間の奥に、無数の『展示台』が並んでいる。そこに置かれているのは、ガラスケースに封じられた『瞬間』の数々。）</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（ある戦士は、剣を掲げたまま絶望の表情で凍りついている。その顔には、『なぜ俺が……』という最期の疑問が刻まれたまま。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（ある戦士は、剣を掲げたまま絶望の表情で凍りついている。その顔には、『なぜ俺が……』という最期の疑問が刻まれたまま。）</t>
         </is>
       </c>
     </row>
@@ -1222,17 +1332,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_21</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（ゼクは冷や汗を流しながらも、不敵な笑みを浮かべてアスタロトを見上げる。）</t>
+          <t>（ある魔術師は、魔導書を抱きしめ、涙を流したまま時が止まっている。その指先には、唱えきれなかった最後の呪文の残滓が漂う。）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（ゼクは冷や汗を流しながらも、不敵な笑みを浮かべてアスタロトを見上げる。）</t>
+          <t>（ある魔術師は、魔導書を抱きしめ、涙を流したまま時が止まっている。その指先には、唱えきれなかった最後の呪文の残滓が漂う。）</t>
         </is>
       </c>
     </row>
@@ -1244,119 +1354,149 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>narr_22</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>（キューブの周りでは、数式やノイズが乱舞し、あなたたちの存在を一時的に『世界の演算』から切り離していた。）</t>
+          <t>（ある盗賊は、仲間の死体にすがりつき、狂ったように笑い続けている。その笑顔は、正気を失った瞬間を永遠に閉じ込められた地獄。）</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>（キューブの周りでは、数式やノイズが乱舞し、あなたたちの存在を一時的に『世界の演算』から切り離していた。）</t>
+          <t>（ある盗賊は、仲間の死体にすがりつき、狂ったように笑い続けている。その笑顔は、正気を失った瞬間を永遠に閉じ込められた地獄。）</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>astaroth_8</t>
+          <t>narr_23</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>……ゼクか。ゴミ拾いの分際で、この私の『確定した死』を歪めたか。</t>
+          <t>（ガラスケースの一つに、見覚えのある鎧が展示されている。——それは、あなたがRank Eで倒した『錆びついた英雄・カイン』の残骸だ。）</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>……ゼクか。ゴミ拾いの分際で、この私の『確定した死』を歪めたか。</t>
+          <t>（ガラスケースの一つに、見覚えのある鎧が展示されている。——それは、あなたがRank Eで倒した『錆びついた英雄・カイン』の残骸だ。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_24</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（彼の表情は、最期の安堵と、それでも消えない後悔が混じり合っていた。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（彼の表情は、最期の安堵と、それでも消えない後悔が混じり合っていた。）</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>……クソが。あいつら全員、ゼクの『作品』かよ。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>……クソが。あいつら全員、ゼクの『作品』かよ。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>こいつは博物館なんかじゃねえ。……英雄の墓場を、趣味で飾り立ててやがる。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>こいつは博物館なんかじゃねえ。……英雄の墓場を、趣味で飾り立ててやがる。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>クク……歪めたのではありません。少しだけ『ページを飛ばした』のですよ。</t>
+          <t>……酷い。これは、魂の冒涜よ。</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>クク……歪めたのではありません。少しだけ『ページを飛ばした』のですよ。</t>
+          <t>……酷い。これは、魂の冒涜よ。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
+          <t>彼らは死後も、こんな場所で……永遠に『最悪の瞬間』を演じ続けさせられている……。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>さあ、闘士殿！ リリィもバルガスも連れて、私の影に飛び込みなさい！</t>
+          <t>彼らは死後も、こんな場所で……永遠に『最悪の瞬間』を演じ続けさせられている……。</t>
         </is>
       </c>
     </row>
@@ -1368,767 +1508,303 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_6</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>この道具が保つのはあと数秒だ。アスタロトを倒すための『本当の力』、それを手に入れる猶予を……私が無理やり作ってあげましょう！</t>
+          <t>……ふぅ。命拾いしましたね。</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>この道具が保つのはあと数秒だ。アスタロトを倒すための『本当の力』、それを手に入れる猶予を……私が無理やり作ってあげましょう！</t>
+          <t>……ふぅ。命拾いしましたね。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>（あなたはバルガスとリリィを連れて、ゼクの影の中へ飛び込む。）</t>
+          <t>今のあなたは、アスタロトにとっては『目障りな不具合』に過ぎない。彼を殺すには……システムの外側にある力、**『レベル1億の深淵』**の力を引き出すしかありません。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>（あなたはバルガスとリリィを連れて、ゼクの影の中へ飛び込む。）</t>
+          <t>今のあなたは、アスタロトにとっては『目障りな不具合』に過ぎない。彼を殺すには……システムの外側にある力、**『レベル1億の深淵』**の力を引き出すしかありません。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>（背後からアスタロトの怒号に近い咆哮が聞こえるが、視界は瞬時に暗転した。）</t>
+          <t>さあ、ここからが本当の『取引』の始まりです。王を殺すための武器。そして、この呪われたアリーナの真実。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>（背後からアスタロトの怒号に近い咆哮が聞こえるが、視界は瞬時に暗転した。）</t>
+          <t>さあ、ここからが本当の『取引』の始まりです。王を殺すための武器。そして、この呪われたアリーナの真実。</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>scene5_hideout</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>zek_9</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>……それらを手に入れる覚悟があるなら、このゴミの山をさらに奥へ進んでいただきましょうか。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>……それらを手に入れる覚悟があるなら、このゴミの山をさらに奥へ進んでいただきましょうか。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>scene5_hideout</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>react1_proceed</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Hideout");             var data = SoundManager.current.GetData("BGM/Zek_Hideout");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Hideout");             }</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>c1_proceed</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>……分かった。進もう</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>……分かった。進もう</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>react1_unforgivable</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>c1_unforgivable</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（辿り着いたのは、アリーナのロビーでも私室でもない、無数のガラクタと遺品が積み上がった不気味な異空間——ゼクの本拠地だった。）</t>
+          <t>お前のコレクション……許せない</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（辿り着いたのは、アリーナのロビーでも私室でもない、無数のガラクタと遺品が積み上がった不気味な異空間——ゼクの本拠地だった。）</t>
+          <t>お前のコレクション……許せない</t>
         </is>
       </c>
     </row>
     <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>react1_kain</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.3</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>c1_kain</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>カインを……解放しろ</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>カインを……解放しろ</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>react1_proceed</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>zek_r1</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>（バルガスが激しく咳き込み、リリィが膝をついて震えている。）</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>（バルガスが激しく咳き込み、リリィが膝をついて震えている。）</t>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（薄暗い空間の奥に、無数の『展示台』が並んでいる。そこに置かれているのは、ガラスケースに封じられた『瞬間』の数々。）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（薄暗い空間の奥に、無数の『展示台』が並んでいる。そこに置かれているのは、ガラスケースに封じられた『瞬間』の数々。）</t>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>react1_unforgivable</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>（ある戦士は、剣を掲げたまま絶望の表情で凍りついている。その顔には、『なぜ俺が……』という最期の疑問が刻まれたまま。）</t>
+          <t>許さなくて結構。ですが、今はアスタロトを倒すことが先決でしょう？</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>（ある戦士は、剣を掲げたまま絶望の表情で凍りついている。その顔には、『なぜ俺が……』という最期の疑問が刻まれたまま。）</t>
+          <t>許さなくて結構。ですが、今はアスタロトを倒すことが先決でしょう？</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（ある魔術師は、魔導書を抱きしめ、涙を流したまま時が止まっている。その指先には、唱えきれなかった最後の呪文の残滓が漂う。）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（ある魔術師は、魔導書を抱きしめ、涙を流したまま時が止まっている。その指先には、唱えきれなかった最後の呪文の残滓が漂う。）</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>（ある盗賊は、仲間の死体にすがりつき、狂ったように笑い続けている。その笑顔は、正気を失った瞬間を永遠に閉じ込められた地獄。）</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>（ある盗賊は、仲間の死体にすがりつき、狂ったように笑い続けている。その笑顔は、正気を失った瞬間を永遠に閉じ込められた地獄。）</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>react1_kain</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>narr_23</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>（ガラスケースの一つに、見覚えのある鎧が展示されている。——それは、あなたがRank Eで倒した『錆びついた英雄・カイン』の残骸だ。）</t>
+          <t>……ふむ。それは、アスタロトを倒した後で考えましょう。今は無理です。</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>（ガラスケースの一つに、見覚えのある鎧が展示されている。——それは、あなたがRank Eで倒した『錆びついた英雄・カイン』の残骸だ。）</t>
+          <t>……ふむ。それは、アスタロトを倒した後で考えましょう。今は無理です。</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>narr_24</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（彼の表情は、最期の安堵と、それでも消えない後悔が混じり合っていた。）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（彼の表情は、最期の安堵と、それでも消えない後悔が混じり合っていた。）</t>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>……クソが。あいつら全員、ゼクの『作品』かよ。</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>……クソが。あいつら全員、ゼクの『作品』かよ。</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>こいつは博物館なんかじゃねえ。……英雄の墓場を、趣味で飾り立ててやがる。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>こいつは博物館なんかじゃねえ。……英雄の墓場を、趣味で飾り立ててやがる。</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.fugitive_status,1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>……酷い。これは、魂の冒涜よ。</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>……酷い。これは、魂の冒涜よ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>彼らは死後も、こんな場所で……永遠に『最悪の瞬間』を演じ続けさせられている……。</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>彼らは死後も、こんな場所で……永遠に『最悪の瞬間』を演じ続けさせられている……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>zek_6</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>……ふぅ。命拾いしましたね。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>……ふぅ。命拾いしましたね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>今のあなたは、アスタロトにとっては『目障りな不具合』に過ぎない。彼を殺すには……システムの外側にある力、**『レベル1億の深淵』**の力を引き出すしかありません。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>今のあなたは、アスタロトにとっては『目障りな不具合』に過ぎない。彼を殺すには……システムの外側にある力、**『レベル1億の深淵』**の力を引き出すしかありません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>さあ、ここからが本当の『取引』の始まりです。王を殺すための武器。そして、この呪われたアリーナの真実。</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>さあ、ここからが本当の『取引』の始まりです。王を殺すための武器。そして、この呪われたアリーナの真実。</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>……それらを手に入れる覚悟があるなら、このゴミの山をさらに奥へ進んでいただきましょうか。</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>……それらを手に入れる覚悟があるなら、このゴミの山をさらに奥へ進んでいただきましょうか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>choice1</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>react1_proceed</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>c1_proceed</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>……分かった。進もう</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>……分かった。進もう</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>react1_unforgivable</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>c1_unforgivable</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>お前のコレクション……許せない</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>お前のコレクション……許せない</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>react1_kain</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>c1_kain</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>カインを……解放しろ</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>カインを……解放しろ</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>react1_proceed</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>zek_r1</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>react1_unforgivable</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>zek_r2</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>許さなくて結構。ですが、今はアスタロトを倒すことが先決でしょう？</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>許さなくて結構。ですが、今はアスタロトを倒すことが先決でしょう？</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>react1_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>zek_r3</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>……ふむ。それは、アスタロトを倒した後で考えましょう。今は無理です。</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>……ふむ。それは、アスタロトを倒した後で考えましょう。今は無理です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.fugitive_status,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="D108" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_grandmaster_1.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
     <row r="29">
       <c r="F29" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="30">
       <c r="F30" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="33">
       <c r="F33" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
     <row r="56">
       <c r="F56" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
